--- a/ProLeiTAG/Massafra/Update/Values/dbIdcImport/S30.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/dbIdcImport/S30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/dbIdcImport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6865D032-3372-8545-9F83-D9EB416C66BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDC0C7B-959A-214A-96F6-91503381E7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16280" yWindow="-21600" windowWidth="25400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24360" windowHeight="11220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,10 @@
     <sheet name="LiTSeqSupplValues" sheetId="5" r:id="rId4"/>
     <sheet name="LiTSeqSupplFunctions" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -130,7 +124,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -168,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -190,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +210,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -238,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -273,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -293,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -315,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -341,7 +335,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -363,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -382,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -407,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -423,7 +417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -444,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -466,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -487,7 +481,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="170">
   <si>
     <t>LiTProfileParam</t>
   </si>
@@ -576,9 +570,6 @@
     <t>Report mode [23]</t>
   </si>
   <si>
-    <t>01 Production</t>
-  </si>
-  <si>
     <t>sec</t>
   </si>
   <si>
@@ -636,9 +627,6 @@
     <t>Energy</t>
   </si>
   <si>
-    <t>Mj</t>
-  </si>
-  <si>
     <t>RM_None</t>
   </si>
   <si>
@@ -930,9 +918,6 @@
     <t>15</t>
   </si>
   <si>
-    <t>Function20</t>
-  </si>
-  <si>
     <t>20: MES: Time casting</t>
   </si>
   <si>
@@ -997,6 +982,15 @@
   </si>
   <si>
     <t>Decoction Line A - VCM07 - needs to be visible : Step 5 - 304 - Boiling, Step 8 -  307 - Reboiling</t>
+  </si>
+  <si>
+    <t>[PROFILE_01]</t>
+  </si>
+  <si>
+    <t>Unit Mj for Function needs to create</t>
+  </si>
+  <si>
+    <t>Function 20</t>
   </si>
 </sst>
 </file>
@@ -1374,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1390,7 +1384,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1404,7 +1406,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1547,62 +1549,62 @@
         <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="3">
         <v>0</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="T3" s="3">
         <v>2</v>
       </c>
       <c r="U3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1612,7 +1614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1640,10 +1642,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
@@ -1669,43 +1671,43 @@
     </row>
     <row r="2" spans="1:13" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1716,37 +1718,37 @@
         <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3" s="3">
         <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1756,12 +1758,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10:F16"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1789,10 +1791,10 @@
   <sheetData>
     <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
@@ -1824,61 +1826,61 @@
     </row>
     <row r="2" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -1889,52 +1891,52 @@
         <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="3">
         <v>3</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -1945,52 +1947,52 @@
         <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="3">
         <v>1</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -2001,52 +2003,52 @@
         <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="3">
         <v>1</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -2057,52 +2059,52 @@
         <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="3">
         <v>2</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -2113,52 +2115,52 @@
         <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="3">
         <v>2</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -2169,52 +2171,52 @@
         <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="3">
         <v>2</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -2225,52 +2227,52 @@
         <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="3">
         <v>2</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -2281,52 +2283,52 @@
         <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="3">
         <v>3</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -2337,52 +2339,52 @@
         <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="3">
         <v>1</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -2393,52 +2395,52 @@
         <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="3">
         <v>1</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -2449,52 +2451,52 @@
         <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F13" s="3">
         <v>58</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="3">
         <v>1</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -2505,52 +2507,52 @@
         <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F14" s="3">
         <v>59</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="3">
         <v>1</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -2561,52 +2563,52 @@
         <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F15" s="3">
         <v>60</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="3">
         <v>1</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -2617,52 +2619,52 @@
         <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F16" s="3">
         <v>61</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="3">
         <v>1</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2673,12 +2675,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4:M5"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2710,10 +2712,10 @@
   <sheetData>
     <row r="1" spans="1:23" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
@@ -2749,73 +2751,73 @@
     </row>
     <row r="2" spans="1:23" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="V2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -2826,67 +2828,67 @@
         <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O3" s="3">
         <v>0</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S3" s="3">
         <v>1</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2900,62 +2902,62 @@
         <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O4" s="3">
         <v>0</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="U4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2969,62 +2971,62 @@
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O5" s="3">
         <v>0</v>
       </c>
       <c r="P5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="3">
-        <v>1</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="U5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
